--- a/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t252.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t252.xlsx
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -465,16 +465,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3037</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -494,22 +494,22 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0008</v>
+        <v>0.0886</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4298</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -529,22 +529,22 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001</v>
+        <v>0.3961</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4638</v>
+        <v>0.0034</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001</v>
+        <v>0.3911</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4628</v>
+        <v>0.0034</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -657,22 +657,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0008</v>
+        <v>0.0886</v>
       </c>
       <c r="D8">
-        <v>0.0001</v>
+        <v>0.3961</v>
       </c>
       <c r="E8">
-        <v>0.0001</v>
+        <v>0.3911</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -684,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.4298</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -716,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0481</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -727,34 +727,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3037</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.0004</v>
       </c>
       <c r="D10">
-        <v>0.4638</v>
+        <v>0.0034</v>
       </c>
       <c r="E10">
-        <v>0.4628</v>
+        <v>0.0034</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.0481</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -762,31 +762,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0494</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="J11">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -845,13 +845,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2453</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -889,22 +889,22 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0005999999999999999</v>
+        <v>0.0886</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4298</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0004</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -924,22 +924,22 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001</v>
+        <v>0.3961</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.3727</v>
+        <v>0.0034</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -959,22 +959,22 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0001</v>
+        <v>0.3911</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.3719</v>
+        <v>0.0034</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0039</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1035,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1055,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0005999999999999999</v>
+        <v>0.0886</v>
       </c>
       <c r="D8">
-        <v>0.0001</v>
+        <v>0.3961</v>
       </c>
       <c r="E8">
-        <v>0.0001</v>
+        <v>0.3911</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.0494</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1090,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.4298</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0469</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1122,34 +1122,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2453</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.0004</v>
       </c>
       <c r="D10">
-        <v>0.3727</v>
+        <v>0.0034</v>
       </c>
       <c r="E10">
-        <v>0.3719</v>
+        <v>0.0034</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0046</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.0469</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1157,31 +1157,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0494</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0074</v>
       </c>
       <c r="J11">
-        <v>0.003</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1284,19 +1284,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1319,19 +1319,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.4501</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1354,19 +1354,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.4505</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0009</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1395,16 +1395,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1088</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2913</v>
       </c>
       <c r="J6">
-        <v>0.0001</v>
+        <v>0.0038</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1415,13 +1415,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.4501</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.4505</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1450,16 +1450,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1088</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2165</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.2913</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1520,16 +1520,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0001</v>
+        <v>0.0038</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1544,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.0113</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1564,19 +1564,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2165</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0786</v>
       </c>
       <c r="J11">
-        <v>0.0113</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1679,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0003</v>
+        <v>0.0011</v>
       </c>
       <c r="G3">
-        <v>0.0027</v>
+        <v>0.0102</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2159</v>
+        <v>0.4491</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2137</v>
+        <v>0.4383</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0003</v>
+        <v>0.0011</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0027</v>
+        <v>0.0102</v>
       </c>
       <c r="D7">
-        <v>0.2159</v>
+        <v>0.4491</v>
       </c>
       <c r="E7">
-        <v>0.2137</v>
+        <v>0.4383</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.4664</v>
+        <v>0.4208</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.4664</v>
+        <v>0.4208</v>
       </c>
       <c r="J10">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t252.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t252.xlsx
@@ -488,25 +488,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0005</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0886</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.4298</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0004</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.3961</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -564,19 +564,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.3911</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -590,13 +590,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -605,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.4461</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -660,16 +660,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0886</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.3961</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3911</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.4461</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.0125</v>
       </c>
       <c r="K8">
-        <v>0.0494</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,13 +695,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4298</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -716,10 +716,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.0441</v>
       </c>
       <c r="K9">
-        <v>0.0074</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0004</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -745,16 +745,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.0125</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.0441</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0494</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="I11">
-        <v>0.0074</v>
+        <v>0.0021</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -883,25 +883,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0005</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0886</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0.4298</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.0004</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -924,19 +924,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0.3961</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -959,19 +959,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.3911</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0039</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.4461</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1055,16 +1055,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0886</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.3961</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3911</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.4461</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.0125</v>
       </c>
       <c r="K8">
-        <v>0.0494</v>
+        <v>0.008399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1090,13 +1090,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4298</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1111,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.0441</v>
       </c>
       <c r="K9">
-        <v>0.0074</v>
+        <v>0.0021</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0004</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0034</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1140,16 +1140,16 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.0125</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.0441</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1169,19 +1169,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0494</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="I11">
-        <v>0.0074</v>
+        <v>0.0021</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3203</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4501</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1354,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4505</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1380,28 +1380,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0009</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0353</v>
       </c>
       <c r="H6">
-        <v>0.1088</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2913</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0038</v>
+        <v>0.5314</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="D7">
-        <v>0.4501</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0.4505</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0353</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1459,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1088</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1471,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0.1593</v>
       </c>
       <c r="K8">
-        <v>0.2165</v>
+        <v>0.0298</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.2913</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1506,10 +1506,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0.1048</v>
       </c>
       <c r="K9">
-        <v>0.0786</v>
+        <v>0.0472</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.3203</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1529,22 +1529,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0038</v>
+        <v>0.5314</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0.1593</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.1048</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.2165</v>
+        <v>0.0298</v>
       </c>
       <c r="I11">
-        <v>0.0786</v>
+        <v>0.0472</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1673,16 +1673,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0011</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4491</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4383</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0011</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.4491</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.4383</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1901,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.4208</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.3029</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1933,13 +1933,13 @@
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.4208</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.4405</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1968,10 +1968,10 @@
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.3029</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0.4405</v>
       </c>
       <c r="K11">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t252.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_equalw_out_sample_direct_t252.xlsx
@@ -10,14 +10,15 @@
     <sheet name="annualised_return" sheetId="1" r:id="rId1"/>
     <sheet name="mean_period_return" sheetId="2" r:id="rId2"/>
     <sheet name="sharpe_annualized" sheetId="3" r:id="rId3"/>
-    <sheet name="VaR" sheetId="4" r:id="rId4"/>
+    <sheet name="sharpe_period" sheetId="4" r:id="rId4"/>
+    <sheet name="VaR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
   <si>
     <t>minvar_ports_equalw</t>
   </si>
@@ -494,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -532,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -567,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -590,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -605,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4461</v>
+        <v>0.0263</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -625,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -660,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -669,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4461</v>
+        <v>0.0263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -681,10 +682,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -695,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -716,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0441</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -730,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -739,22 +740,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0441</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,13 +781,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -889,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -927,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -962,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -985,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1000,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.4461</v>
+        <v>0.0263</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1020,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1055,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1064,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4461</v>
+        <v>0.0263</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1076,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1090,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1111,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0441</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1125,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1134,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0125</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0441</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1175,13 +1176,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.008399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1249,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1077</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1261,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1284,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6971000000000001</v>
       </c>
       <c r="G3">
-        <v>0.06519999999999999</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="J3">
-        <v>0.3203</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1322,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1357,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1377,10 +1378,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1077</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6971000000000001</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1392,19 +1393,19 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0353</v>
+        <v>0.0863</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0536</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5314</v>
+        <v>0.0001</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1412,19 +1413,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0.06519999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0353</v>
+        <v>0.0863</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1436,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1450,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1459,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1468,13 +1469,13 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.0543</v>
       </c>
       <c r="J8">
-        <v>0.1593</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.0298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1485,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1500,16 +1501,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.0543</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.1048</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.0472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1517,10 +1518,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0.3203</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1529,22 +1530,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5314</v>
+        <v>0.0001</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0.1593</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1048</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1552,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1564,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0.0298</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0472</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1644,10 +1645,10 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1077</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1656,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1679,16 +1680,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6971000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1772,10 +1773,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.1077</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.6971000000000001</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1787,19 +1788,19 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0863</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0536</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1807,7 +1808,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1819,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.0863</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1831,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1845,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1854,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1863,13 +1864,13 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.0543</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0022</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1895,16 +1896,16 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0.0543</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3029</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1912,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1924,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.4405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1947,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1959,19 +1960,414 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3029</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.4405</v>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.0009</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.8409</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.0009</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8409</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.6906</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.1866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.6906</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.508</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.508</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.1313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.1866</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.1313</v>
       </c>
       <c r="K11">
         <v>1</v>
